--- a/media/output/result/bpic2012_accepted_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2012_accepted_complex_evaluation_weighted_edit_distance.xlsx
@@ -592,25 +592,25 @@
         <v>937</v>
       </c>
       <c r="C6" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4855923159018143</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6537356321839081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -621,25 +621,25 @@
         <v>937</v>
       </c>
       <c r="C7" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4855923159018143</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6537356321839081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         <v>937</v>
       </c>
       <c r="C8" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4855923159018143</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6537356321839081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
         <v>937</v>
       </c>
       <c r="C9" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4855923159018143</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6537356321839081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>937</v>
       </c>
       <c r="C10" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4855923159018143</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6537356321839081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -737,25 +737,25 @@
         <v>937</v>
       </c>
       <c r="C11" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4855923159018143</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6537356321839081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,25 +766,25 @@
         <v>937</v>
       </c>
       <c r="C12" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4855923159018143</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6537356321839081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">

--- a/media/output/result/bpic2012_accepted_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2012_accepted_complex_evaluation_weighted_edit_distance.xlsx
@@ -592,25 +592,25 @@
         <v>937</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E6" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.4855923159018143</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.6537356321839081</v>
       </c>
     </row>
     <row r="7">
@@ -621,25 +621,25 @@
         <v>937</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E7" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.4855923159018143</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.6537356321839081</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         <v>937</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E8" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.4855923159018143</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.6537356321839081</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
         <v>937</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E9" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.4855923159018143</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.6537356321839081</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>937</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E10" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.4855923159018143</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.6537356321839081</v>
       </c>
     </row>
     <row r="11">
@@ -737,25 +737,25 @@
         <v>937</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E11" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.4855923159018143</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.6537356321839081</v>
       </c>
     </row>
     <row r="12">
@@ -766,25 +766,25 @@
         <v>937</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E12" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.4855923159018143</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.6537356321839081</v>
       </c>
     </row>
     <row r="13">
